--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -103,18 +103,18 @@
     <t>support</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -127,13 +127,13 @@
     <t>safety</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>care</t>
@@ -1135,25 +1135,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7444933920704846</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L19">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1161,25 +1161,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1190,22 +1190,22 @@
         <v>0.7111111111111111</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1213,25 +1213,25 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1343,25 +1343,25 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.636085626911315</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="M27">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1369,25 +1369,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.631578947368421</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L28">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1395,25 +1395,25 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.6122448979591837</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="10:17">
